--- a/biology/Médecine/1540_en_santé_et_médecine/1540_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1540_en_santé_et_médecine/1540_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1540_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1540_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1540 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1540_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1540_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Roch Le Baillif (mort en 1598), médecin normand, accusé d'« impiété paracelsine » par la Faculté, médecin ordinaire du roi Henri III[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roch Le Baillif (mort en 1598), médecin normand, accusé d'« impiété paracelsine » par la Faculté, médecin ordinaire du roi Henri III.
 Vers 1540 :
-Brice Bauderon (mort en 1623), médecin français, auteur d'une Pharmacopée publiée à Lyon en 1588, « qui a eu de très nombreuses éditions et qui, de son temps, était fort estimée[2] ».
-William Clowes (mort en  1604), chirurgien de la Royal Navy[3].
-Peder Sørensen, en latin Petrus Severinus (mort en  1602), médecin et alchimiste danois, disciple de Paracelse (1493-1541), auteur de Idea medicinae philosophicae (1571) sur la présence d’agents invisibles, cause des maladies[4].</t>
+Brice Bauderon (mort en 1623), médecin français, auteur d'une Pharmacopée publiée à Lyon en 1588, « qui a eu de très nombreuses éditions et qui, de son temps, était fort estimée ».
+William Clowes (mort en  1604), chirurgien de la Royal Navy.
+Peder Sørensen, en latin Petrus Severinus (mort en  1602), médecin et alchimiste danois, disciple de Paracelse (1493-1541), auteur de Idea medicinae philosophicae (1571) sur la présence d’agents invisibles, cause des maladies.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1540_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1540_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 mai : Jean Louis Vivès (né en 1492), humaniste d'origine espagnole, auteur en 1525 du De subventione pauperum[5], qui prône « la suppression de la mendicité » par « la sécularisation de l'assistance » et « la mise en œuvre effective de la police des pauvres[6] ».
-Bernardino de Laredo (né en 1482), théologien et médecin castillan, surtout connu pour son traité sur la quiétude, Subida del Monte Sion (« Ascension du mont Sion[7] »), mais également auteur de deux ouvrages de médecine :  Metaphora medicinae (1522) et Modus faciendi cum ordine medicandi (1527[8]).
-Francesco Cavallo (né vers 1450), médecin et astrologue italien, professeur de grec et d'hébreu à Padoue, auteur d'un Libellus de animali pastillos theriacos et theriacam ingrediente, imprimé pour la première fois à Venise en 1497[9].
-1540 ou 1551 : Francysk Skaryna (né en 1486 ou 1490), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue, médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 mai : Jean Louis Vivès (né en 1492), humaniste d'origine espagnole, auteur en 1525 du De subventione pauperum, qui prône « la suppression de la mendicité » par « la sécularisation de l'assistance » et « la mise en œuvre effective de la police des pauvres ».
+Bernardino de Laredo (né en 1482), théologien et médecin castillan, surtout connu pour son traité sur la quiétude, Subida del Monte Sion (« Ascension du mont Sion »), mais également auteur de deux ouvrages de médecine :  Metaphora medicinae (1522) et Modus faciendi cum ordine medicandi (1527).
+Francesco Cavallo (né vers 1450), médecin et astrologue italien, professeur de grec et d'hébreu à Padoue, auteur d'un Libellus de animali pastillos theriacos et theriacam ingrediente, imprimé pour la première fois à Venise en 1497.
+1540 ou 1551 : Francysk Skaryna (né en 1486 ou 1490), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue, médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier.
 </t>
         </is>
       </c>
